--- a/formshare/tests/resources/forms/data_columns/data_columns_a.xlsx
+++ b/formshare/tests/resources/forms/data_columns/data_columns_a.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
   <si>
     <t xml:space="preserve">some notes</t>
   </si>
@@ -48,6 +48,9 @@
     <t xml:space="preserve">formshare_encrypted</t>
   </si>
   <si>
+    <t xml:space="preserve">formshare_unique</t>
+  </si>
+  <si>
     <t xml:space="preserve">formshare_ontological_term</t>
   </si>
   <si>
@@ -217,6 +220,12 @@
   </si>
   <si>
     <t xml:space="preserve">IND005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hr_qst_874b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique variable</t>
   </si>
   <si>
     <t xml:space="preserve">hr_qst_005</t>
@@ -691,13 +700,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J7" activeCellId="0" sqref="J7:J15"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
@@ -706,16 +715,17 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="23.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="44.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="42.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="23.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="21.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="26.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="23.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="44.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="42.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="23.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="21.14"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -752,13 +762,13 @@
       <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -776,13 +786,16 @@
       <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -794,359 +807,393 @@
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
-      <c r="N2" s="0"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="5" t="s">
         <v>23</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="L6" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="5"/>
+      <c r="M6" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
-        <v>35</v>
-      </c>
+      <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="J9" s="1"/>
       <c r="K9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="0" t="s">
+      <c r="L9" s="1" t="s">
         <v>49</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="7" t="s">
         <v>55</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="0" t="s">
+      <c r="L10" s="1" t="s">
         <v>57</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9"/>
       <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M11" s="1"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>67</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="I12" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="F13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="F14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="R14" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>84</v>
-      </c>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="S15" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="T15" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C16" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="11"/>
+      <c r="L16" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="11"/>
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>95</v>
+        <v>28</v>
+      </c>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1170,10 +1217,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="J5" activeCellId="1" sqref="J7:J15 J5"/>
+      <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.14"/>
@@ -1185,7 +1232,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
@@ -1197,50 +1244,50 @@
         <v>4</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>201</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>101</v>
@@ -1248,16 +1295,16 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>202</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>101</v>
@@ -1265,16 +1312,16 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>301</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>201</v>
@@ -1285,16 +1332,16 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>302</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>201</v>
@@ -1305,16 +1352,16 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>303</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>201</v>
@@ -1325,16 +1372,16 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>304</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>201</v>
@@ -1345,16 +1392,16 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>305</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>202</v>
@@ -1365,16 +1412,16 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>306</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>202</v>
@@ -1385,16 +1432,16 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>307</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>202</v>
@@ -1405,16 +1452,16 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>308</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>202</v>
@@ -1425,16 +1472,16 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>309</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>202</v>
@@ -1445,16 +1492,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>310</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>202</v>
@@ -1465,16 +1512,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>311</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>202</v>
@@ -1489,131 +1536,131 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G17" s="11"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G18" s="11"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="G19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H22" s="12" t="n">
         <v>1</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H23" s="12" t="n">
         <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1641,10 +1688,10 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J7:J15 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -1653,18 +1700,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/formshare/tests/resources/forms/data_columns/data_columns_a.xlsx
+++ b/formshare/tests/resources/forms/data_columns/data_columns_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t xml:space="preserve">some notes</t>
   </si>
@@ -469,6 +469,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">Data columns – 20230623</t>
@@ -702,11 +705,11 @@
   </sheetPr>
   <dimension ref="A1:T19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="23.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.14"/>
@@ -1220,7 +1223,7 @@
       <selection pane="bottomLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.09375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.14"/>
@@ -1685,13 +1688,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.89453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.90234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.15"/>
@@ -1705,13 +1708,19 @@
       <c r="B1" s="2" t="s">
         <v>148</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
